--- a/Develop/Users/HuyTDH/UT/HuyTDH.xlsx
+++ b/Develop/Users/HuyTDH/UT/HuyTDH.xlsx
@@ -9,14 +9,14 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="405" yWindow="555" windowWidth="23280" windowHeight="15060" tabRatio="713" activeTab="4"/>
+    <workbookView xWindow="405" yWindow="555" windowWidth="23280" windowHeight="15060" tabRatio="713" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="ガイドライン" sheetId="13" r:id="rId1"/>
     <sheet name="Cover" sheetId="4" r:id="rId2"/>
     <sheet name="TestCaseList" sheetId="5" r:id="rId3"/>
     <sheet name="TestReport" sheetId="6" r:id="rId4"/>
-    <sheet name="Function1" sheetId="7" r:id="rId5"/>
+    <sheet name="SP07" sheetId="7" r:id="rId5"/>
     <sheet name="Function2" sheetId="16" r:id="rId6"/>
     <sheet name="Function3" sheetId="20" r:id="rId7"/>
     <sheet name="Template" sheetId="15" r:id="rId8"/>
@@ -26,26 +26,26 @@
     <definedName name="ACTION" localSheetId="6">#REF!</definedName>
     <definedName name="ACTION" localSheetId="7">#REF!</definedName>
     <definedName name="ACTION">#REF!</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="4">Function1!$A$1:$U$55</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="5">Function2!$A$1:$T$57</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="6">Function3!$A$1:$T$53</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="4">'SP07'!$A$1:$U$55</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="7">Template!$A$1:$T$53</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="2">TestCaseList!$A$1:$H$39</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="3">TestReport!$A$1:$I$41</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">ガイドライン!$A$1:$A$48</definedName>
-    <definedName name="Z_2C0D9096_8D85_462A_A9B5_0B488ADB4269_.wvu.Cols" localSheetId="4" hidden="1">Function1!$E:$E</definedName>
     <definedName name="Z_2C0D9096_8D85_462A_A9B5_0B488ADB4269_.wvu.Cols" localSheetId="5" hidden="1">Function2!$E:$E</definedName>
     <definedName name="Z_2C0D9096_8D85_462A_A9B5_0B488ADB4269_.wvu.Cols" localSheetId="6" hidden="1">Function3!$E:$E</definedName>
+    <definedName name="Z_2C0D9096_8D85_462A_A9B5_0B488ADB4269_.wvu.Cols" localSheetId="4" hidden="1">'SP07'!$E:$E</definedName>
     <definedName name="Z_2C0D9096_8D85_462A_A9B5_0B488ADB4269_.wvu.Cols" localSheetId="7" hidden="1">Template!$E:$E</definedName>
     <definedName name="Z_2C0D9096_8D85_462A_A9B5_0B488ADB4269_.wvu.PrintArea" localSheetId="3" hidden="1">TestReport!$A:$I</definedName>
-    <definedName name="Z_6F1DCD5D_5DAC_4817_BF40_2B66F6F593E6_.wvu.Cols" localSheetId="4" hidden="1">Function1!$E:$E</definedName>
     <definedName name="Z_6F1DCD5D_5DAC_4817_BF40_2B66F6F593E6_.wvu.Cols" localSheetId="5" hidden="1">Function2!$E:$E</definedName>
     <definedName name="Z_6F1DCD5D_5DAC_4817_BF40_2B66F6F593E6_.wvu.Cols" localSheetId="6" hidden="1">Function3!$E:$E</definedName>
+    <definedName name="Z_6F1DCD5D_5DAC_4817_BF40_2B66F6F593E6_.wvu.Cols" localSheetId="4" hidden="1">'SP07'!$E:$E</definedName>
     <definedName name="Z_6F1DCD5D_5DAC_4817_BF40_2B66F6F593E6_.wvu.Cols" localSheetId="7" hidden="1">Template!$E:$E</definedName>
     <definedName name="Z_6F1DCD5D_5DAC_4817_BF40_2B66F6F593E6_.wvu.PrintArea" localSheetId="3" hidden="1">TestReport!$A:$I</definedName>
-    <definedName name="Z_BE54E0AD_3725_4423_92D7_4F1C045BE1BC_.wvu.Cols" localSheetId="4" hidden="1">Function1!$E:$E</definedName>
     <definedName name="Z_BE54E0AD_3725_4423_92D7_4F1C045BE1BC_.wvu.Cols" localSheetId="5" hidden="1">Function2!$E:$E</definedName>
     <definedName name="Z_BE54E0AD_3725_4423_92D7_4F1C045BE1BC_.wvu.Cols" localSheetId="6" hidden="1">Function3!$E:$E</definedName>
+    <definedName name="Z_BE54E0AD_3725_4423_92D7_4F1C045BE1BC_.wvu.Cols" localSheetId="4" hidden="1">'SP07'!$E:$E</definedName>
     <definedName name="Z_BE54E0AD_3725_4423_92D7_4F1C045BE1BC_.wvu.Cols" localSheetId="7" hidden="1">Template!$E:$E</definedName>
     <definedName name="Z_BE54E0AD_3725_4423_92D7_4F1C045BE1BC_.wvu.PrintArea" localSheetId="3" hidden="1">TestReport!$A:$I</definedName>
   </definedNames>
@@ -280,7 +280,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="450" uniqueCount="180">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="451" uniqueCount="181">
   <si>
     <t>*A,D,M</t>
   </si>
@@ -931,12 +931,6 @@
     <t>shipperManage</t>
   </si>
   <si>
-    <t>getHistory(req,res,next)</t>
-  </si>
-  <si>
-    <t>SP001</t>
-  </si>
-  <si>
     <t>req</t>
   </si>
   <si>
@@ -986,6 +980,15 @@
   </si>
   <si>
     <t>"Can't get data from server"</t>
+  </si>
+  <si>
+    <t>=TestCaseList!$D$11</t>
+  </si>
+  <si>
+    <t>getHistory(shipperid, page)</t>
+  </si>
+  <si>
+    <t>SP07</t>
   </si>
 </sst>
 </file>
@@ -2697,7 +2700,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="289">
+  <cellXfs count="290">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center" readingOrder="1"/>
     </xf>
@@ -3243,6 +3246,21 @@
     <xf numFmtId="0" fontId="35" fillId="29" borderId="33" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" readingOrder="1"/>
     </xf>
+    <xf numFmtId="0" fontId="36" fillId="29" borderId="29" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="29" borderId="29" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="33" borderId="30" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="34" borderId="30" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="30" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" readingOrder="1"/>
+    </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3316,6 +3334,96 @@
     <xf numFmtId="14" fontId="41" fillId="24" borderId="11" xfId="41" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" readingOrder="1"/>
     </xf>
+    <xf numFmtId="49" fontId="35" fillId="30" borderId="65" xfId="39" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="30" borderId="66" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="30" borderId="67" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="30" borderId="44" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="24" borderId="43" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="24" borderId="43" xfId="40" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="30" borderId="64" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="30" borderId="48" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="30" borderId="68" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="29" borderId="33" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="29" borderId="38" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="29" borderId="52" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="30" borderId="69" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="30" borderId="70" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="24" borderId="82" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="30" borderId="71" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="30" borderId="11" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="30" borderId="72" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="30" borderId="73" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="24" borderId="48" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="30" borderId="46" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="30" borderId="74" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="30" borderId="75" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="24" borderId="72" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="29" borderId="29" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="29" borderId="30" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="29" borderId="31" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="29" borderId="34" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="29" borderId="35" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="29" borderId="36" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="36" fillId="30" borderId="76" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1" readingOrder="1"/>
     </xf>
@@ -3340,9 +3448,6 @@
     <xf numFmtId="0" fontId="35" fillId="30" borderId="78" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="30" borderId="74" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
     <xf numFmtId="0" fontId="35" fillId="30" borderId="79" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
@@ -3352,80 +3457,23 @@
     <xf numFmtId="0" fontId="35" fillId="30" borderId="81" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="30" borderId="71" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="30" borderId="11" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1" readingOrder="1"/>
-    </xf>
     <xf numFmtId="0" fontId="35" fillId="30" borderId="10" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="30" borderId="48" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="29" borderId="33" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="29" borderId="38" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="29" borderId="52" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="30" borderId="69" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="30" borderId="44" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="30" borderId="70" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1" readingOrder="1"/>
-    </xf>
     <xf numFmtId="0" fontId="35" fillId="29" borderId="0" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="24" borderId="82" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="30" borderId="72" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="38" fillId="30" borderId="10" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="30" borderId="48" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="30" borderId="72" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="30" borderId="73" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="38" fillId="30" borderId="73" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="24" borderId="48" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="30" borderId="46" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="30" borderId="75" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="24" borderId="72" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="35" fillId="30" borderId="65" xfId="39" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="30" borderId="66" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="30" borderId="67" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="24" borderId="43" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="24" borderId="43" xfId="40" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="30" borderId="64" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="30" borderId="68" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="49" fontId="38" fillId="30" borderId="65" xfId="39" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1" readingOrder="1"/>
@@ -3445,50 +3493,8 @@
     <xf numFmtId="0" fontId="38" fillId="30" borderId="70" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="30" borderId="10" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="30" borderId="48" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="30" borderId="72" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="30" borderId="73" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="29" borderId="29" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="29" borderId="29" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="33" borderId="30" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="34" borderId="30" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="30" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="29" borderId="29" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="29" borderId="30" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="29" borderId="31" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="29" borderId="34" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="29" borderId="35" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="29" borderId="36" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+    <xf numFmtId="0" fontId="13" fillId="24" borderId="15" xfId="34" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" readingOrder="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="59">
@@ -5670,13 +5676,13 @@
   <sheetData>
     <row r="2" spans="1:6" s="146" customFormat="1" ht="75.75" customHeight="1">
       <c r="A2" s="145"/>
-      <c r="B2" s="206" t="s">
+      <c r="B2" s="211" t="s">
         <v>99</v>
       </c>
-      <c r="C2" s="206"/>
-      <c r="D2" s="206"/>
-      <c r="E2" s="206"/>
-      <c r="F2" s="206"/>
+      <c r="C2" s="211"/>
+      <c r="D2" s="211"/>
+      <c r="E2" s="211"/>
+      <c r="F2" s="211"/>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="147"/>
@@ -5687,11 +5693,11 @@
       <c r="A4" s="166" t="s">
         <v>88</v>
       </c>
-      <c r="B4" s="207" t="s">
+      <c r="B4" s="212" t="s">
         <v>149</v>
       </c>
-      <c r="C4" s="207"/>
-      <c r="D4" s="207"/>
+      <c r="C4" s="212"/>
+      <c r="D4" s="212"/>
       <c r="E4" s="166" t="s">
         <v>87</v>
       </c>
@@ -5703,25 +5709,25 @@
       <c r="A5" s="166" t="s">
         <v>89</v>
       </c>
-      <c r="B5" s="207" t="s">
+      <c r="B5" s="212" t="s">
         <v>150</v>
       </c>
-      <c r="C5" s="207"/>
-      <c r="D5" s="207"/>
+      <c r="C5" s="212"/>
+      <c r="D5" s="212"/>
       <c r="E5" s="166" t="s">
         <v>90</v>
       </c>
       <c r="F5" s="181"/>
     </row>
     <row r="6" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A6" s="208" t="s">
+      <c r="A6" s="213" t="s">
         <v>91</v>
       </c>
-      <c r="B6" s="209" t="s">
+      <c r="B6" s="214" t="s">
         <v>151</v>
       </c>
-      <c r="C6" s="209"/>
-      <c r="D6" s="209"/>
+      <c r="C6" s="214"/>
+      <c r="D6" s="214"/>
       <c r="E6" s="166" t="s">
         <v>92</v>
       </c>
@@ -5730,10 +5736,10 @@
       </c>
     </row>
     <row r="7" spans="1:6" ht="13.5" customHeight="1">
-      <c r="A7" s="208"/>
-      <c r="B7" s="209"/>
-      <c r="C7" s="209"/>
-      <c r="D7" s="209"/>
+      <c r="A7" s="213"/>
+      <c r="B7" s="214"/>
+      <c r="C7" s="214"/>
+      <c r="D7" s="214"/>
       <c r="E7" s="166" t="s">
         <v>93</v>
       </c>
@@ -5875,7 +5881,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:H23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
@@ -5910,42 +5916,42 @@
       <c r="G3" s="7"/>
     </row>
     <row r="4" spans="1:8" ht="14.25" customHeight="1">
-      <c r="A4" s="211" t="s">
+      <c r="A4" s="216" t="s">
         <v>101</v>
       </c>
-      <c r="B4" s="211"/>
-      <c r="C4" s="211"/>
-      <c r="D4" s="211"/>
-      <c r="E4" s="212" t="str">
+      <c r="B4" s="216"/>
+      <c r="C4" s="216"/>
+      <c r="D4" s="216"/>
+      <c r="E4" s="217" t="str">
         <f>Cover!B4</f>
         <v>KarryWell</v>
       </c>
-      <c r="F4" s="213"/>
-      <c r="G4" s="213"/>
-      <c r="H4" s="214"/>
+      <c r="F4" s="218"/>
+      <c r="G4" s="218"/>
+      <c r="H4" s="219"/>
     </row>
     <row r="5" spans="1:8" ht="14.25" customHeight="1">
-      <c r="A5" s="211" t="s">
+      <c r="A5" s="216" t="s">
         <v>86</v>
       </c>
-      <c r="B5" s="211"/>
-      <c r="C5" s="211"/>
-      <c r="D5" s="211"/>
-      <c r="E5" s="212" t="str">
+      <c r="B5" s="216"/>
+      <c r="C5" s="216"/>
+      <c r="D5" s="216"/>
+      <c r="E5" s="217" t="str">
         <f>Cover!B5</f>
         <v>3S</v>
       </c>
-      <c r="F5" s="213"/>
-      <c r="G5" s="213"/>
-      <c r="H5" s="214"/>
+      <c r="F5" s="218"/>
+      <c r="G5" s="218"/>
+      <c r="H5" s="219"/>
     </row>
     <row r="6" spans="1:8" ht="14.25" customHeight="1">
-      <c r="A6" s="218" t="s">
+      <c r="A6" s="223" t="s">
         <v>102</v>
       </c>
-      <c r="B6" s="219"/>
-      <c r="C6" s="219"/>
-      <c r="D6" s="220"/>
+      <c r="B6" s="224"/>
+      <c r="C6" s="224"/>
+      <c r="D6" s="225"/>
       <c r="E6" s="195">
         <v>100</v>
       </c>
@@ -5954,18 +5960,18 @@
       <c r="H6" s="197"/>
     </row>
     <row r="7" spans="1:8" s="8" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A7" s="210" t="s">
+      <c r="A7" s="215" t="s">
         <v>103</v>
       </c>
-      <c r="B7" s="210"/>
-      <c r="C7" s="210"/>
-      <c r="D7" s="210"/>
-      <c r="E7" s="215" t="s">
+      <c r="B7" s="215"/>
+      <c r="C7" s="215"/>
+      <c r="D7" s="215"/>
+      <c r="E7" s="220" t="s">
         <v>135</v>
       </c>
-      <c r="F7" s="216"/>
-      <c r="G7" s="216"/>
-      <c r="H7" s="217"/>
+      <c r="F7" s="221"/>
+      <c r="G7" s="221"/>
+      <c r="H7" s="222"/>
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="9"/>
@@ -6013,7 +6019,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="11" spans="1:8">
+    <row r="11" spans="1:8" ht="13.5">
       <c r="A11" s="54">
         <v>1</v>
       </c>
@@ -6022,13 +6028,13 @@
         <v>160</v>
       </c>
       <c r="D11" s="194" t="s">
-        <v>161</v>
+        <v>179</v>
       </c>
       <c r="E11" s="26" t="s">
-        <v>162</v>
-      </c>
-      <c r="F11" s="27" t="s">
-        <v>55</v>
+        <v>180</v>
+      </c>
+      <c r="F11" s="289" t="s">
+        <v>180</v>
       </c>
       <c r="G11" s="27"/>
       <c r="H11" s="28"/>
@@ -6188,9 +6194,9 @@
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="F11" location="Function1!A1" display="Function1"/>
     <hyperlink ref="F12" location="Function2!A1" display="Function2"/>
     <hyperlink ref="F13" location="Function3!A1" display="Function3"/>
+    <hyperlink ref="F11" location="'SP07'!A1" display="SP07"/>
   </hyperlinks>
   <pageMargins left="0.65" right="0.65" top="0.75" bottom="0.75" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="landscape" horizontalDpi="300" verticalDpi="300"/>
@@ -6221,17 +6227,17 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:14" ht="25.5" customHeight="1">
-      <c r="A2" s="222" t="s">
+      <c r="A2" s="227" t="s">
         <v>110</v>
       </c>
-      <c r="B2" s="222"/>
-      <c r="C2" s="222"/>
-      <c r="D2" s="222"/>
-      <c r="E2" s="222"/>
-      <c r="F2" s="222"/>
-      <c r="G2" s="222"/>
-      <c r="H2" s="222"/>
-      <c r="I2" s="222"/>
+      <c r="B2" s="227"/>
+      <c r="C2" s="227"/>
+      <c r="D2" s="227"/>
+      <c r="E2" s="227"/>
+      <c r="F2" s="227"/>
+      <c r="G2" s="227"/>
+      <c r="H2" s="227"/>
+      <c r="I2" s="227"/>
     </row>
     <row r="3" spans="1:14" ht="14.25" customHeight="1">
       <c r="A3" s="36"/>
@@ -6248,72 +6254,72 @@
       <c r="A4" s="173" t="s">
         <v>88</v>
       </c>
-      <c r="B4" s="223" t="str">
+      <c r="B4" s="228" t="str">
         <f>Cover!B4</f>
         <v>KarryWell</v>
       </c>
-      <c r="C4" s="223"/>
-      <c r="D4" s="224" t="s">
+      <c r="C4" s="228"/>
+      <c r="D4" s="229" t="s">
         <v>87</v>
       </c>
-      <c r="E4" s="224"/>
-      <c r="F4" s="225"/>
-      <c r="G4" s="226"/>
-      <c r="H4" s="226"/>
-      <c r="I4" s="227"/>
+      <c r="E4" s="229"/>
+      <c r="F4" s="230"/>
+      <c r="G4" s="231"/>
+      <c r="H4" s="231"/>
+      <c r="I4" s="232"/>
     </row>
     <row r="5" spans="1:14" ht="13.5" customHeight="1">
       <c r="A5" s="173" t="s">
         <v>89</v>
       </c>
-      <c r="B5" s="223" t="str">
+      <c r="B5" s="228" t="str">
         <f>Cover!B5</f>
         <v>3S</v>
       </c>
-      <c r="C5" s="223"/>
-      <c r="D5" s="224" t="s">
+      <c r="C5" s="228"/>
+      <c r="D5" s="229" t="s">
         <v>90</v>
       </c>
-      <c r="E5" s="224"/>
-      <c r="F5" s="225"/>
-      <c r="G5" s="226"/>
-      <c r="H5" s="226"/>
-      <c r="I5" s="227"/>
+      <c r="E5" s="229"/>
+      <c r="F5" s="230"/>
+      <c r="G5" s="231"/>
+      <c r="H5" s="231"/>
+      <c r="I5" s="232"/>
     </row>
     <row r="6" spans="1:14" ht="12.75" customHeight="1">
       <c r="A6" s="174" t="s">
         <v>91</v>
       </c>
-      <c r="B6" s="223" t="str">
+      <c r="B6" s="228" t="str">
         <f>B5&amp;"_"&amp;"Test Report"&amp;"_"&amp;"v1.0"</f>
         <v>3S_Test Report_v1.0</v>
       </c>
-      <c r="C6" s="223"/>
-      <c r="D6" s="224" t="s">
+      <c r="C6" s="228"/>
+      <c r="D6" s="229" t="s">
         <v>92</v>
       </c>
-      <c r="E6" s="224"/>
-      <c r="F6" s="228">
+      <c r="E6" s="229"/>
+      <c r="F6" s="233">
         <v>42337</v>
       </c>
-      <c r="G6" s="229"/>
-      <c r="H6" s="229"/>
-      <c r="I6" s="230"/>
+      <c r="G6" s="234"/>
+      <c r="H6" s="234"/>
+      <c r="I6" s="235"/>
     </row>
     <row r="7" spans="1:14" ht="15.75" customHeight="1">
       <c r="A7" s="174" t="s">
         <v>111</v>
       </c>
-      <c r="B7" s="221" t="s">
+      <c r="B7" s="226" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="221"/>
-      <c r="D7" s="221"/>
-      <c r="E7" s="221"/>
-      <c r="F7" s="221"/>
-      <c r="G7" s="221"/>
-      <c r="H7" s="221"/>
-      <c r="I7" s="221"/>
+      <c r="C7" s="226"/>
+      <c r="D7" s="226"/>
+      <c r="E7" s="226"/>
+      <c r="F7" s="226"/>
+      <c r="G7" s="226"/>
+      <c r="H7" s="226"/>
+      <c r="I7" s="226"/>
     </row>
     <row r="8" spans="1:14" ht="14.25" customHeight="1">
       <c r="A8" s="39"/>
@@ -6385,31 +6391,31 @@
         <v>55</v>
       </c>
       <c r="C12" s="46">
-        <f>Function1!A7</f>
+        <f>'SP07'!A7</f>
         <v>0</v>
       </c>
       <c r="D12" s="46">
-        <f>Function1!C7</f>
+        <f>'SP07'!C7</f>
         <v>0</v>
       </c>
       <c r="E12" s="46">
-        <f>Function1!F7</f>
+        <f>'SP07'!F7</f>
         <v>16</v>
       </c>
       <c r="F12" s="47">
-        <f>Function1!L7</f>
+        <f>'SP07'!L7</f>
         <v>4</v>
       </c>
       <c r="G12" s="46">
-        <f>Function1!M7</f>
+        <f>'SP07'!M7</f>
         <v>8</v>
       </c>
       <c r="H12" s="46">
-        <f>Function1!N7</f>
+        <f>'SP07'!N7</f>
         <v>4</v>
       </c>
       <c r="I12" s="46">
-        <f>Function1!O7</f>
+        <f>'SP07'!O7</f>
         <v>16</v>
       </c>
     </row>
@@ -6653,8 +6659,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="B39" sqref="B39:D39"/>
+    <sheetView zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="L2" sqref="L2:U2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" customHeight="1"/>
@@ -6678,58 +6684,57 @@
       <c r="B1" s="73"/>
     </row>
     <row r="2" spans="1:24" ht="13.5" customHeight="1">
-      <c r="A2" s="231" t="s">
+      <c r="A2" s="266" t="s">
         <v>125</v>
       </c>
-      <c r="B2" s="232"/>
-      <c r="C2" s="233" t="str">
+      <c r="B2" s="267"/>
+      <c r="C2" s="268" t="str">
         <f>TestCaseList!E11</f>
-        <v>SP001</v>
-      </c>
-      <c r="D2" s="234"/>
-      <c r="E2" s="235"/>
-      <c r="F2" s="236" t="s">
+        <v>SP07</v>
+      </c>
+      <c r="D2" s="269"/>
+      <c r="E2" s="270"/>
+      <c r="F2" s="271" t="s">
         <v>104</v>
       </c>
-      <c r="G2" s="236"/>
-      <c r="H2" s="236"/>
-      <c r="I2" s="236"/>
-      <c r="J2" s="236"/>
-      <c r="K2" s="236"/>
-      <c r="L2" s="261" t="str">
-        <f>TestCaseList!$D$11</f>
-        <v>getHistory(req,res,next)</v>
-      </c>
-      <c r="M2" s="262"/>
-      <c r="N2" s="262"/>
-      <c r="O2" s="262"/>
-      <c r="P2" s="262"/>
-      <c r="Q2" s="262"/>
-      <c r="R2" s="262"/>
-      <c r="S2" s="262"/>
-      <c r="T2" s="262"/>
-      <c r="U2" s="263"/>
+      <c r="G2" s="271"/>
+      <c r="H2" s="271"/>
+      <c r="I2" s="271"/>
+      <c r="J2" s="271"/>
+      <c r="K2" s="271"/>
+      <c r="L2" s="236" t="s">
+        <v>178</v>
+      </c>
+      <c r="M2" s="237"/>
+      <c r="N2" s="237"/>
+      <c r="O2" s="237"/>
+      <c r="P2" s="237"/>
+      <c r="Q2" s="237"/>
+      <c r="R2" s="237"/>
+      <c r="S2" s="237"/>
+      <c r="T2" s="237"/>
+      <c r="U2" s="238"/>
       <c r="W2" s="76"/>
     </row>
     <row r="3" spans="1:24" ht="13.5" customHeight="1">
-      <c r="A3" s="243" t="s">
+      <c r="A3" s="251" t="s">
         <v>126</v>
       </c>
-      <c r="B3" s="244"/>
-      <c r="C3" s="250"/>
-      <c r="D3" s="251"/>
-      <c r="E3" s="252"/>
-      <c r="F3" s="265" t="s">
+      <c r="B3" s="252"/>
+      <c r="C3" s="248"/>
+      <c r="D3" s="239"/>
+      <c r="E3" s="249"/>
+      <c r="F3" s="241" t="s">
         <v>130</v>
       </c>
-      <c r="G3" s="265"/>
-      <c r="H3" s="265"/>
-      <c r="I3" s="265"/>
-      <c r="J3" s="265"/>
-      <c r="K3" s="265"/>
-      <c r="L3" s="251"/>
-      <c r="M3" s="251"/>
-      <c r="N3" s="251"/>
+      <c r="G3" s="241"/>
+      <c r="H3" s="241"/>
+      <c r="I3" s="241"/>
+      <c r="J3" s="241"/>
+      <c r="K3" s="241"/>
+      <c r="L3" s="239"/>
+      <c r="M3" s="239"/>
+      <c r="N3" s="239"/>
       <c r="O3" s="198"/>
       <c r="P3" s="198"/>
       <c r="Q3" s="198"/>
@@ -6739,120 +6744,120 @@
       <c r="U3" s="199"/>
     </row>
     <row r="4" spans="1:24" ht="13.5" customHeight="1">
-      <c r="A4" s="243" t="s">
+      <c r="A4" s="251" t="s">
         <v>127</v>
       </c>
-      <c r="B4" s="244"/>
-      <c r="C4" s="245">
+      <c r="B4" s="252"/>
+      <c r="C4" s="277">
         <v>50</v>
       </c>
-      <c r="D4" s="246"/>
+      <c r="D4" s="243"/>
       <c r="E4" s="200"/>
-      <c r="F4" s="265" t="s">
+      <c r="F4" s="241" t="s">
         <v>131</v>
       </c>
-      <c r="G4" s="265"/>
-      <c r="H4" s="265"/>
-      <c r="I4" s="265"/>
-      <c r="J4" s="265"/>
-      <c r="K4" s="265"/>
-      <c r="L4" s="266">
+      <c r="G4" s="241"/>
+      <c r="H4" s="241"/>
+      <c r="I4" s="241"/>
+      <c r="J4" s="241"/>
+      <c r="K4" s="241"/>
+      <c r="L4" s="242">
         <f xml:space="preserve"> IF(TestCaseList!E6&lt;&gt;"N/A",SUM(C4*TestCaseList!E6/1000,- O7),"N/A")</f>
         <v>-11</v>
       </c>
-      <c r="M4" s="246"/>
-      <c r="N4" s="246"/>
-      <c r="O4" s="246"/>
-      <c r="P4" s="246"/>
-      <c r="Q4" s="246"/>
-      <c r="R4" s="246"/>
-      <c r="S4" s="246"/>
-      <c r="T4" s="246"/>
-      <c r="U4" s="267"/>
+      <c r="M4" s="243"/>
+      <c r="N4" s="243"/>
+      <c r="O4" s="243"/>
+      <c r="P4" s="243"/>
+      <c r="Q4" s="243"/>
+      <c r="R4" s="243"/>
+      <c r="S4" s="243"/>
+      <c r="T4" s="243"/>
+      <c r="U4" s="244"/>
       <c r="W4" s="76"/>
     </row>
     <row r="5" spans="1:24" ht="13.5" customHeight="1">
-      <c r="A5" s="243" t="s">
+      <c r="A5" s="251" t="s">
         <v>128</v>
       </c>
-      <c r="B5" s="244"/>
-      <c r="C5" s="255" t="s">
-        <v>176</v>
-      </c>
-      <c r="D5" s="255"/>
-      <c r="E5" s="255"/>
-      <c r="F5" s="256"/>
-      <c r="G5" s="256"/>
-      <c r="H5" s="256"/>
-      <c r="I5" s="256"/>
-      <c r="J5" s="256"/>
-      <c r="K5" s="256"/>
-      <c r="L5" s="255"/>
-      <c r="M5" s="255"/>
-      <c r="N5" s="255"/>
-      <c r="O5" s="255"/>
-      <c r="P5" s="255"/>
-      <c r="Q5" s="255"/>
-      <c r="R5" s="255"/>
-      <c r="S5" s="255"/>
-      <c r="T5" s="255"/>
-      <c r="U5" s="255"/>
+      <c r="B5" s="252"/>
+      <c r="C5" s="253" t="s">
+        <v>174</v>
+      </c>
+      <c r="D5" s="253"/>
+      <c r="E5" s="253"/>
+      <c r="F5" s="254"/>
+      <c r="G5" s="254"/>
+      <c r="H5" s="254"/>
+      <c r="I5" s="254"/>
+      <c r="J5" s="254"/>
+      <c r="K5" s="254"/>
+      <c r="L5" s="253"/>
+      <c r="M5" s="253"/>
+      <c r="N5" s="253"/>
+      <c r="O5" s="253"/>
+      <c r="P5" s="253"/>
+      <c r="Q5" s="253"/>
+      <c r="R5" s="253"/>
+      <c r="S5" s="253"/>
+      <c r="T5" s="253"/>
+      <c r="U5" s="253"/>
     </row>
     <row r="6" spans="1:24" ht="13.5" customHeight="1">
-      <c r="A6" s="254" t="s">
+      <c r="A6" s="250" t="s">
         <v>132</v>
       </c>
-      <c r="B6" s="254"/>
-      <c r="C6" s="264" t="s">
+      <c r="B6" s="250"/>
+      <c r="C6" s="240" t="s">
         <v>133</v>
       </c>
-      <c r="D6" s="264"/>
-      <c r="E6" s="264"/>
-      <c r="F6" s="264" t="s">
+      <c r="D6" s="240"/>
+      <c r="E6" s="240"/>
+      <c r="F6" s="240" t="s">
         <v>114</v>
       </c>
-      <c r="G6" s="264"/>
-      <c r="H6" s="264"/>
-      <c r="I6" s="264"/>
-      <c r="J6" s="264"/>
-      <c r="K6" s="264"/>
-      <c r="L6" s="257" t="s">
+      <c r="G6" s="240"/>
+      <c r="H6" s="240"/>
+      <c r="I6" s="240"/>
+      <c r="J6" s="240"/>
+      <c r="K6" s="240"/>
+      <c r="L6" s="255" t="s">
         <v>35</v>
       </c>
-      <c r="M6" s="257"/>
-      <c r="N6" s="257"/>
-      <c r="O6" s="260" t="s">
+      <c r="M6" s="255"/>
+      <c r="N6" s="255"/>
+      <c r="O6" s="259" t="s">
         <v>134</v>
       </c>
-      <c r="P6" s="260"/>
-      <c r="Q6" s="260"/>
-      <c r="R6" s="260"/>
-      <c r="S6" s="260"/>
-      <c r="T6" s="260"/>
-      <c r="U6" s="260"/>
+      <c r="P6" s="259"/>
+      <c r="Q6" s="259"/>
+      <c r="R6" s="259"/>
+      <c r="S6" s="259"/>
+      <c r="T6" s="259"/>
+      <c r="U6" s="259"/>
       <c r="W6" s="76"/>
     </row>
     <row r="7" spans="1:24" ht="13.5" customHeight="1" thickBot="1">
-      <c r="A7" s="242">
+      <c r="A7" s="276">
         <f>COUNTIF(F42:HR42,"P")</f>
         <v>0</v>
       </c>
-      <c r="B7" s="241"/>
-      <c r="C7" s="238">
+      <c r="B7" s="275"/>
+      <c r="C7" s="273">
         <f>COUNTIF(F42:HR42,"F")</f>
         <v>0</v>
       </c>
-      <c r="D7" s="239"/>
-      <c r="E7" s="241"/>
-      <c r="F7" s="238">
+      <c r="D7" s="257"/>
+      <c r="E7" s="275"/>
+      <c r="F7" s="273">
         <f>SUM(O7,- A7,- C7)</f>
         <v>16</v>
       </c>
-      <c r="G7" s="239"/>
-      <c r="H7" s="239"/>
-      <c r="I7" s="239"/>
-      <c r="J7" s="239"/>
-      <c r="K7" s="240"/>
+      <c r="G7" s="257"/>
+      <c r="H7" s="257"/>
+      <c r="I7" s="257"/>
+      <c r="J7" s="257"/>
+      <c r="K7" s="274"/>
       <c r="L7" s="80">
         <f>COUNTIF(E41:HR41,"N")</f>
         <v>4</v>
@@ -6865,16 +6870,16 @@
         <f>COUNTIF(E41:HR41,"B")</f>
         <v>4</v>
       </c>
-      <c r="O7" s="258">
+      <c r="O7" s="256">
         <f>COUNTA(E9:HU9)</f>
         <v>16</v>
       </c>
-      <c r="P7" s="239"/>
-      <c r="Q7" s="239"/>
-      <c r="R7" s="239"/>
-      <c r="S7" s="239"/>
-      <c r="T7" s="239"/>
-      <c r="U7" s="259"/>
+      <c r="P7" s="257"/>
+      <c r="Q7" s="257"/>
+      <c r="R7" s="257"/>
+      <c r="S7" s="257"/>
+      <c r="T7" s="257"/>
+      <c r="U7" s="258"/>
       <c r="V7" s="81"/>
     </row>
     <row r="8" spans="1:24" ht="11.25" thickBot="1"/>
@@ -6930,7 +6935,7 @@
         <v>19</v>
       </c>
       <c r="U9" s="143" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="V9" s="83"/>
       <c r="W9" s="84"/>
@@ -7014,8 +7019,8 @@
     </row>
     <row r="13" spans="1:24" ht="13.5" customHeight="1">
       <c r="A13" s="117"/>
-      <c r="B13" s="278" t="s">
-        <v>163</v>
+      <c r="B13" s="206" t="s">
+        <v>161</v>
       </c>
       <c r="C13" s="87"/>
       <c r="D13" s="88"/>
@@ -7042,8 +7047,8 @@
       <c r="B14" s="86">
         <v>1</v>
       </c>
-      <c r="C14" s="280" t="s">
-        <v>165</v>
+      <c r="C14" s="208" t="s">
+        <v>163</v>
       </c>
       <c r="D14" s="88" t="s">
         <v>158</v>
@@ -7077,11 +7082,11 @@
     <row r="15" spans="1:24" ht="13.5" customHeight="1">
       <c r="A15" s="117"/>
       <c r="B15" s="86"/>
-      <c r="C15" s="280" t="s">
-        <v>167</v>
+      <c r="C15" s="208" t="s">
+        <v>165</v>
       </c>
       <c r="D15" s="88" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="E15" s="91"/>
       <c r="F15" s="126"/>
@@ -7112,11 +7117,11 @@
     <row r="16" spans="1:24" ht="13.5" customHeight="1">
       <c r="A16" s="117"/>
       <c r="B16" s="86"/>
-      <c r="C16" s="280" t="s">
+      <c r="C16" s="208" t="s">
+        <v>165</v>
+      </c>
+      <c r="D16" s="88" t="s">
         <v>167</v>
-      </c>
-      <c r="D16" s="88" t="s">
-        <v>169</v>
       </c>
       <c r="E16" s="91"/>
       <c r="F16" s="126"/>
@@ -7147,11 +7152,11 @@
     <row r="17" spans="1:22" ht="13.5" customHeight="1">
       <c r="A17" s="117"/>
       <c r="B17" s="86"/>
-      <c r="C17" s="280" t="s">
-        <v>167</v>
+      <c r="C17" s="208" t="s">
+        <v>165</v>
       </c>
       <c r="D17" s="88" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="E17" s="91"/>
       <c r="F17" s="126"/>
@@ -7183,7 +7188,7 @@
     <row r="18" spans="1:22" ht="13.5" customHeight="1">
       <c r="A18" s="117"/>
       <c r="B18" s="86"/>
-      <c r="C18" s="282"/>
+      <c r="C18" s="210"/>
       <c r="D18" s="88"/>
       <c r="E18" s="204"/>
       <c r="F18" s="126"/>
@@ -7209,11 +7214,11 @@
       <c r="B19" s="86">
         <v>2</v>
       </c>
-      <c r="C19" s="281" t="s">
-        <v>166</v>
+      <c r="C19" s="209" t="s">
+        <v>164</v>
       </c>
       <c r="D19" s="88" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="E19" s="91"/>
       <c r="F19" s="126" t="s">
@@ -7245,8 +7250,8 @@
     <row r="20" spans="1:22" ht="13.5" customHeight="1">
       <c r="A20" s="117"/>
       <c r="B20" s="86"/>
-      <c r="C20" s="281" t="s">
-        <v>171</v>
+      <c r="C20" s="209" t="s">
+        <v>169</v>
       </c>
       <c r="D20" s="88">
         <v>0</v>
@@ -7280,8 +7285,8 @@
     <row r="21" spans="1:22" ht="13.5" customHeight="1">
       <c r="A21" s="117"/>
       <c r="B21" s="86"/>
-      <c r="C21" s="281" t="s">
-        <v>171</v>
+      <c r="C21" s="209" t="s">
+        <v>169</v>
       </c>
       <c r="D21" s="88">
         <v>1</v>
@@ -7315,8 +7320,8 @@
     <row r="22" spans="1:22" ht="13.5" customHeight="1">
       <c r="A22" s="117"/>
       <c r="B22" s="86"/>
-      <c r="C22" s="281" t="s">
-        <v>171</v>
+      <c r="C22" s="209" t="s">
+        <v>169</v>
       </c>
       <c r="D22" s="88">
         <v>2</v>
@@ -7491,8 +7496,8 @@
     </row>
     <row r="29" spans="1:22" ht="13.5" customHeight="1">
       <c r="A29" s="119"/>
-      <c r="B29" s="279" t="s">
-        <v>164</v>
+      <c r="B29" s="207" t="s">
+        <v>162</v>
       </c>
       <c r="C29" s="100"/>
       <c r="D29" s="101"/>
@@ -7516,9 +7521,9 @@
     </row>
     <row r="30" spans="1:22" ht="13.5" customHeight="1">
       <c r="A30" s="119"/>
-      <c r="B30" s="279"/>
+      <c r="B30" s="207"/>
       <c r="C30" s="100" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="D30" s="101">
         <v>200</v>
@@ -7555,7 +7560,7 @@
     </row>
     <row r="31" spans="1:22" ht="13.5" customHeight="1">
       <c r="A31" s="119"/>
-      <c r="B31" s="279"/>
+      <c r="B31" s="207"/>
       <c r="C31" s="100"/>
       <c r="D31" s="101">
         <v>400</v>
@@ -7584,7 +7589,7 @@
     </row>
     <row r="32" spans="1:22" ht="13.5" customHeight="1">
       <c r="A32" s="119"/>
-      <c r="B32" s="279"/>
+      <c r="B32" s="207"/>
       <c r="C32" s="100"/>
       <c r="D32" s="101">
         <v>401</v>
@@ -7627,10 +7632,10 @@
       <c r="A33" s="119"/>
       <c r="B33" s="103"/>
       <c r="C33" s="100" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="D33" s="101" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="E33" s="104"/>
       <c r="F33" s="126"/>
@@ -7655,7 +7660,7 @@
       <c r="B34" s="103"/>
       <c r="C34" s="100"/>
       <c r="D34" s="101" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="E34" s="104"/>
       <c r="F34" s="126"/>
@@ -7680,7 +7685,7 @@
       <c r="B35" s="103"/>
       <c r="C35" s="100"/>
       <c r="D35" s="101" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="E35" s="104"/>
       <c r="F35" s="126"/>
@@ -7775,11 +7780,11 @@
     </row>
     <row r="39" spans="1:21" ht="13.5" customHeight="1">
       <c r="A39" s="119"/>
-      <c r="B39" s="283" t="s">
-        <v>178</v>
-      </c>
-      <c r="C39" s="284"/>
-      <c r="D39" s="285"/>
+      <c r="B39" s="260" t="s">
+        <v>176</v>
+      </c>
+      <c r="C39" s="261"/>
+      <c r="D39" s="262"/>
       <c r="E39" s="104"/>
       <c r="F39" s="126" t="s">
         <v>159</v>
@@ -7816,11 +7821,11 @@
     </row>
     <row r="40" spans="1:21" ht="13.5" customHeight="1" thickBot="1">
       <c r="A40" s="119"/>
-      <c r="B40" s="286" t="s">
-        <v>179</v>
-      </c>
-      <c r="C40" s="287"/>
-      <c r="D40" s="288"/>
+      <c r="B40" s="263" t="s">
+        <v>177</v>
+      </c>
+      <c r="C40" s="264"/>
+      <c r="D40" s="265"/>
       <c r="E40" s="108"/>
       <c r="F40" s="132"/>
       <c r="G40" s="132" t="s">
@@ -7847,11 +7852,11 @@
       <c r="A41" s="118" t="s">
         <v>138</v>
       </c>
-      <c r="B41" s="249" t="s">
+      <c r="B41" s="247" t="s">
         <v>20</v>
       </c>
-      <c r="C41" s="249"/>
-      <c r="D41" s="249"/>
+      <c r="C41" s="247"/>
+      <c r="D41" s="247"/>
       <c r="E41" s="109"/>
       <c r="F41" s="134" t="s">
         <v>23</v>
@@ -7904,11 +7909,11 @@
     </row>
     <row r="42" spans="1:21" ht="13.5" customHeight="1">
       <c r="A42" s="119"/>
-      <c r="B42" s="237" t="s">
+      <c r="B42" s="272" t="s">
         <v>24</v>
       </c>
-      <c r="C42" s="237"/>
-      <c r="D42" s="237"/>
+      <c r="C42" s="272"/>
+      <c r="D42" s="272"/>
       <c r="E42" s="110"/>
       <c r="F42" s="136"/>
       <c r="G42" s="136"/>
@@ -7929,11 +7934,11 @@
     </row>
     <row r="43" spans="1:21" ht="13.5" customHeight="1">
       <c r="A43" s="119"/>
-      <c r="B43" s="247" t="s">
+      <c r="B43" s="245" t="s">
         <v>27</v>
       </c>
-      <c r="C43" s="247"/>
-      <c r="D43" s="247"/>
+      <c r="C43" s="245"/>
+      <c r="D43" s="245"/>
       <c r="E43" s="104"/>
       <c r="F43" s="111">
         <v>42337</v>
@@ -7986,11 +7991,11 @@
     </row>
     <row r="44" spans="1:21" ht="11.25" thickBot="1">
       <c r="A44" s="120"/>
-      <c r="B44" s="248" t="s">
+      <c r="B44" s="246" t="s">
         <v>28</v>
       </c>
-      <c r="C44" s="248"/>
-      <c r="D44" s="248"/>
+      <c r="C44" s="246"/>
+      <c r="D44" s="246"/>
       <c r="E44" s="113"/>
       <c r="F44" s="114"/>
       <c r="G44" s="114"/>
@@ -8014,13 +8019,16 @@
     </row>
   </sheetData>
   <mergeCells count="29">
-    <mergeCell ref="L2:U2"/>
-    <mergeCell ref="L3:N3"/>
-    <mergeCell ref="C6:E6"/>
-    <mergeCell ref="F3:K3"/>
-    <mergeCell ref="L4:U4"/>
-    <mergeCell ref="F6:K6"/>
-    <mergeCell ref="F4:K4"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="C2:E2"/>
+    <mergeCell ref="F2:K2"/>
+    <mergeCell ref="B42:D42"/>
+    <mergeCell ref="F7:K7"/>
+    <mergeCell ref="C7:E7"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="C4:D4"/>
     <mergeCell ref="B43:D43"/>
     <mergeCell ref="B44:D44"/>
     <mergeCell ref="B41:D41"/>
@@ -8033,16 +8041,13 @@
     <mergeCell ref="O6:U6"/>
     <mergeCell ref="B39:D39"/>
     <mergeCell ref="B40:D40"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="C2:E2"/>
-    <mergeCell ref="F2:K2"/>
-    <mergeCell ref="B42:D42"/>
-    <mergeCell ref="F7:K7"/>
-    <mergeCell ref="C7:E7"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="L2:U2"/>
+    <mergeCell ref="L3:N3"/>
+    <mergeCell ref="C6:E6"/>
+    <mergeCell ref="F3:K3"/>
+    <mergeCell ref="L4:U4"/>
+    <mergeCell ref="F6:K6"/>
+    <mergeCell ref="F4:K4"/>
   </mergeCells>
   <phoneticPr fontId="34" type="noConversion"/>
   <dataValidations count="3">
@@ -8094,59 +8099,59 @@
       <c r="B1" s="73"/>
     </row>
     <row r="2" spans="1:23" ht="13.5" customHeight="1">
-      <c r="A2" s="231" t="s">
+      <c r="A2" s="266" t="s">
         <v>125</v>
       </c>
-      <c r="B2" s="232"/>
-      <c r="C2" s="233" t="str">
+      <c r="B2" s="267"/>
+      <c r="C2" s="268" t="str">
         <f>TestCaseList!E11</f>
-        <v>SP001</v>
-      </c>
-      <c r="D2" s="234"/>
-      <c r="E2" s="235"/>
-      <c r="F2" s="236" t="s">
+        <v>SP07</v>
+      </c>
+      <c r="D2" s="269"/>
+      <c r="E2" s="270"/>
+      <c r="F2" s="271" t="s">
         <v>104</v>
       </c>
-      <c r="G2" s="236"/>
-      <c r="H2" s="236"/>
-      <c r="I2" s="236"/>
-      <c r="J2" s="236"/>
-      <c r="K2" s="236"/>
-      <c r="L2" s="261">
+      <c r="G2" s="271"/>
+      <c r="H2" s="271"/>
+      <c r="I2" s="271"/>
+      <c r="J2" s="271"/>
+      <c r="K2" s="271"/>
+      <c r="L2" s="236">
         <f>TestCaseList!$D$12</f>
         <v>0</v>
       </c>
-      <c r="M2" s="262"/>
-      <c r="N2" s="262"/>
-      <c r="O2" s="262"/>
-      <c r="P2" s="262"/>
-      <c r="Q2" s="262"/>
-      <c r="R2" s="262"/>
-      <c r="S2" s="262"/>
-      <c r="T2" s="263"/>
+      <c r="M2" s="237"/>
+      <c r="N2" s="237"/>
+      <c r="O2" s="237"/>
+      <c r="P2" s="237"/>
+      <c r="Q2" s="237"/>
+      <c r="R2" s="237"/>
+      <c r="S2" s="237"/>
+      <c r="T2" s="238"/>
       <c r="V2" s="76"/>
     </row>
     <row r="3" spans="1:23" ht="13.5" customHeight="1">
-      <c r="A3" s="243" t="s">
+      <c r="A3" s="251" t="s">
         <v>126</v>
       </c>
-      <c r="B3" s="244"/>
-      <c r="C3" s="250" t="s">
+      <c r="B3" s="252"/>
+      <c r="C3" s="248" t="s">
         <v>129</v>
       </c>
-      <c r="D3" s="251"/>
-      <c r="E3" s="252"/>
-      <c r="F3" s="265" t="s">
+      <c r="D3" s="239"/>
+      <c r="E3" s="249"/>
+      <c r="F3" s="241" t="s">
         <v>130</v>
       </c>
-      <c r="G3" s="265"/>
-      <c r="H3" s="265"/>
-      <c r="I3" s="265"/>
-      <c r="J3" s="265"/>
-      <c r="K3" s="265"/>
-      <c r="L3" s="251"/>
-      <c r="M3" s="251"/>
-      <c r="N3" s="251"/>
+      <c r="G3" s="241"/>
+      <c r="H3" s="241"/>
+      <c r="I3" s="241"/>
+      <c r="J3" s="241"/>
+      <c r="K3" s="241"/>
+      <c r="L3" s="239"/>
+      <c r="M3" s="239"/>
+      <c r="N3" s="239"/>
       <c r="O3" s="198"/>
       <c r="P3" s="198"/>
       <c r="Q3" s="198"/>
@@ -8155,117 +8160,117 @@
       <c r="T3" s="199"/>
     </row>
     <row r="4" spans="1:23" ht="13.5" customHeight="1">
-      <c r="A4" s="243" t="s">
+      <c r="A4" s="251" t="s">
         <v>127</v>
       </c>
-      <c r="B4" s="244"/>
-      <c r="C4" s="245">
+      <c r="B4" s="252"/>
+      <c r="C4" s="277">
         <v>14</v>
       </c>
-      <c r="D4" s="246"/>
+      <c r="D4" s="243"/>
       <c r="E4" s="200"/>
-      <c r="F4" s="265" t="s">
+      <c r="F4" s="241" t="s">
         <v>131</v>
       </c>
-      <c r="G4" s="265"/>
-      <c r="H4" s="265"/>
-      <c r="I4" s="265"/>
-      <c r="J4" s="265"/>
-      <c r="K4" s="265"/>
-      <c r="L4" s="266">
+      <c r="G4" s="241"/>
+      <c r="H4" s="241"/>
+      <c r="I4" s="241"/>
+      <c r="J4" s="241"/>
+      <c r="K4" s="241"/>
+      <c r="L4" s="242">
         <f xml:space="preserve"> IF(TestCaseList!E6&lt;&gt;"N/A",SUM(C4*TestCaseList!E6/1000,- O7),"N/A")</f>
         <v>-13.6</v>
       </c>
-      <c r="M4" s="246"/>
-      <c r="N4" s="246"/>
-      <c r="O4" s="246"/>
-      <c r="P4" s="246"/>
-      <c r="Q4" s="246"/>
-      <c r="R4" s="246"/>
-      <c r="S4" s="246"/>
-      <c r="T4" s="267"/>
+      <c r="M4" s="243"/>
+      <c r="N4" s="243"/>
+      <c r="O4" s="243"/>
+      <c r="P4" s="243"/>
+      <c r="Q4" s="243"/>
+      <c r="R4" s="243"/>
+      <c r="S4" s="243"/>
+      <c r="T4" s="244"/>
       <c r="V4" s="76"/>
     </row>
     <row r="5" spans="1:23" ht="13.5" customHeight="1">
-      <c r="A5" s="243" t="s">
+      <c r="A5" s="251" t="s">
         <v>128</v>
       </c>
-      <c r="B5" s="244"/>
-      <c r="C5" s="255" t="s">
+      <c r="B5" s="252"/>
+      <c r="C5" s="253" t="s">
         <v>142</v>
       </c>
-      <c r="D5" s="255"/>
-      <c r="E5" s="255"/>
-      <c r="F5" s="256"/>
-      <c r="G5" s="256"/>
-      <c r="H5" s="256"/>
-      <c r="I5" s="256"/>
-      <c r="J5" s="256"/>
-      <c r="K5" s="256"/>
-      <c r="L5" s="255"/>
-      <c r="M5" s="255"/>
-      <c r="N5" s="255"/>
-      <c r="O5" s="255"/>
-      <c r="P5" s="255"/>
-      <c r="Q5" s="255"/>
-      <c r="R5" s="255"/>
-      <c r="S5" s="255"/>
-      <c r="T5" s="255"/>
+      <c r="D5" s="253"/>
+      <c r="E5" s="253"/>
+      <c r="F5" s="254"/>
+      <c r="G5" s="254"/>
+      <c r="H5" s="254"/>
+      <c r="I5" s="254"/>
+      <c r="J5" s="254"/>
+      <c r="K5" s="254"/>
+      <c r="L5" s="253"/>
+      <c r="M5" s="253"/>
+      <c r="N5" s="253"/>
+      <c r="O5" s="253"/>
+      <c r="P5" s="253"/>
+      <c r="Q5" s="253"/>
+      <c r="R5" s="253"/>
+      <c r="S5" s="253"/>
+      <c r="T5" s="253"/>
     </row>
     <row r="6" spans="1:23" ht="13.5" customHeight="1">
-      <c r="A6" s="254" t="s">
+      <c r="A6" s="250" t="s">
         <v>132</v>
       </c>
-      <c r="B6" s="254"/>
-      <c r="C6" s="264" t="s">
+      <c r="B6" s="250"/>
+      <c r="C6" s="240" t="s">
         <v>133</v>
       </c>
-      <c r="D6" s="264"/>
-      <c r="E6" s="264"/>
-      <c r="F6" s="264" t="s">
+      <c r="D6" s="240"/>
+      <c r="E6" s="240"/>
+      <c r="F6" s="240" t="s">
         <v>114</v>
       </c>
-      <c r="G6" s="264"/>
-      <c r="H6" s="264"/>
-      <c r="I6" s="264"/>
-      <c r="J6" s="264"/>
-      <c r="K6" s="264"/>
-      <c r="L6" s="257" t="s">
+      <c r="G6" s="240"/>
+      <c r="H6" s="240"/>
+      <c r="I6" s="240"/>
+      <c r="J6" s="240"/>
+      <c r="K6" s="240"/>
+      <c r="L6" s="255" t="s">
         <v>35</v>
       </c>
-      <c r="M6" s="257"/>
-      <c r="N6" s="257"/>
-      <c r="O6" s="260" t="s">
+      <c r="M6" s="255"/>
+      <c r="N6" s="255"/>
+      <c r="O6" s="259" t="s">
         <v>134</v>
       </c>
-      <c r="P6" s="260"/>
-      <c r="Q6" s="260"/>
-      <c r="R6" s="260"/>
-      <c r="S6" s="260"/>
-      <c r="T6" s="260"/>
+      <c r="P6" s="259"/>
+      <c r="Q6" s="259"/>
+      <c r="R6" s="259"/>
+      <c r="S6" s="259"/>
+      <c r="T6" s="259"/>
       <c r="V6" s="76"/>
     </row>
     <row r="7" spans="1:23" ht="13.5" customHeight="1" thickBot="1">
-      <c r="A7" s="242">
+      <c r="A7" s="276">
         <f>COUNTIF(F44:HQ44,"P")</f>
         <v>0</v>
       </c>
-      <c r="B7" s="241"/>
-      <c r="C7" s="238">
+      <c r="B7" s="275"/>
+      <c r="C7" s="273">
         <f>COUNTIF(F44:HQ44,"F")</f>
         <v>0</v>
       </c>
-      <c r="D7" s="239"/>
-      <c r="E7" s="241"/>
-      <c r="F7" s="238">
+      <c r="D7" s="257"/>
+      <c r="E7" s="275"/>
+      <c r="F7" s="273">
         <f>SUM(O7,- A7,- C7)</f>
         <v>15</v>
       </c>
-      <c r="G7" s="239"/>
-      <c r="H7" s="239"/>
-      <c r="I7" s="239"/>
-      <c r="J7" s="239"/>
-      <c r="K7" s="240"/>
+      <c r="G7" s="257"/>
+      <c r="H7" s="257"/>
+      <c r="I7" s="257"/>
+      <c r="J7" s="257"/>
+      <c r="K7" s="274"/>
       <c r="L7" s="80">
         <f>COUNTIF(E43:HQ43,"N")</f>
         <v>0</v>
@@ -8278,15 +8283,15 @@
         <f>COUNTIF(E43:HQ43,"B")</f>
         <v>0</v>
       </c>
-      <c r="O7" s="258">
+      <c r="O7" s="256">
         <f>COUNTA(E9:HT9)</f>
         <v>15</v>
       </c>
-      <c r="P7" s="239"/>
-      <c r="Q7" s="239"/>
-      <c r="R7" s="239"/>
-      <c r="S7" s="239"/>
-      <c r="T7" s="259"/>
+      <c r="P7" s="257"/>
+      <c r="Q7" s="257"/>
+      <c r="R7" s="257"/>
+      <c r="S7" s="257"/>
+      <c r="T7" s="258"/>
       <c r="U7" s="81"/>
     </row>
     <row r="8" spans="1:23" ht="11.25" thickBot="1"/>
@@ -8558,8 +8563,8 @@
         <v>141</v>
       </c>
       <c r="C19" s="87"/>
-      <c r="D19" s="253"/>
-      <c r="E19" s="253"/>
+      <c r="D19" s="278"/>
+      <c r="E19" s="278"/>
       <c r="F19" s="126"/>
       <c r="G19" s="126"/>
       <c r="H19" s="126"/>
@@ -9094,11 +9099,11 @@
       <c r="A43" s="118" t="s">
         <v>138</v>
       </c>
-      <c r="B43" s="249" t="s">
+      <c r="B43" s="247" t="s">
         <v>20</v>
       </c>
-      <c r="C43" s="249"/>
-      <c r="D43" s="249"/>
+      <c r="C43" s="247"/>
+      <c r="D43" s="247"/>
       <c r="E43" s="161"/>
       <c r="F43" s="134"/>
       <c r="G43" s="134"/>
@@ -9118,11 +9123,11 @@
     </row>
     <row r="44" spans="1:20" ht="13.5" customHeight="1">
       <c r="A44" s="119"/>
-      <c r="B44" s="237" t="s">
+      <c r="B44" s="272" t="s">
         <v>24</v>
       </c>
-      <c r="C44" s="237"/>
-      <c r="D44" s="237"/>
+      <c r="C44" s="272"/>
+      <c r="D44" s="272"/>
       <c r="E44" s="110"/>
       <c r="F44" s="136"/>
       <c r="G44" s="136"/>
@@ -9142,11 +9147,11 @@
     </row>
     <row r="45" spans="1:20" ht="13.5" customHeight="1">
       <c r="A45" s="119"/>
-      <c r="B45" s="247" t="s">
+      <c r="B45" s="245" t="s">
         <v>27</v>
       </c>
-      <c r="C45" s="247"/>
-      <c r="D45" s="247"/>
+      <c r="C45" s="245"/>
+      <c r="D45" s="245"/>
       <c r="E45" s="104"/>
       <c r="F45" s="111">
         <v>42337</v>
@@ -9196,11 +9201,11 @@
     </row>
     <row r="46" spans="1:20" ht="11.25" thickBot="1">
       <c r="A46" s="120"/>
-      <c r="B46" s="248" t="s">
+      <c r="B46" s="246" t="s">
         <v>28</v>
       </c>
-      <c r="C46" s="248"/>
-      <c r="D46" s="248"/>
+      <c r="C46" s="246"/>
+      <c r="D46" s="246"/>
       <c r="E46" s="113"/>
       <c r="F46" s="114"/>
       <c r="G46" s="114"/>
@@ -9223,14 +9228,11 @@
     </row>
   </sheetData>
   <mergeCells count="28">
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="C2:E2"/>
-    <mergeCell ref="F2:K2"/>
-    <mergeCell ref="L2:T2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="C3:E3"/>
-    <mergeCell ref="F3:K3"/>
-    <mergeCell ref="L3:N3"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="B43:D43"/>
+    <mergeCell ref="B44:D44"/>
+    <mergeCell ref="B45:D45"/>
+    <mergeCell ref="B46:D46"/>
     <mergeCell ref="A7:B7"/>
     <mergeCell ref="C7:E7"/>
     <mergeCell ref="F7:K7"/>
@@ -9246,11 +9248,14 @@
     <mergeCell ref="F6:K6"/>
     <mergeCell ref="L6:N6"/>
     <mergeCell ref="O6:T6"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="B43:D43"/>
-    <mergeCell ref="B44:D44"/>
-    <mergeCell ref="B45:D45"/>
-    <mergeCell ref="B46:D46"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="C2:E2"/>
+    <mergeCell ref="F2:K2"/>
+    <mergeCell ref="L2:T2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C3:E3"/>
+    <mergeCell ref="F3:K3"/>
+    <mergeCell ref="L3:N3"/>
   </mergeCells>
   <phoneticPr fontId="40"/>
   <dataValidations count="3">
@@ -9300,58 +9305,58 @@
       <c r="B1" s="73"/>
     </row>
     <row r="2" spans="1:23" ht="13.5" customHeight="1">
-      <c r="A2" s="231" t="s">
+      <c r="A2" s="266" t="s">
         <v>125</v>
       </c>
-      <c r="B2" s="232"/>
-      <c r="C2" s="268" t="str">
+      <c r="B2" s="267"/>
+      <c r="C2" s="283" t="str">
         <f>TestCaseList!E11</f>
-        <v>SP001</v>
-      </c>
-      <c r="D2" s="269"/>
-      <c r="E2" s="270"/>
-      <c r="F2" s="236" t="s">
+        <v>SP07</v>
+      </c>
+      <c r="D2" s="284"/>
+      <c r="E2" s="285"/>
+      <c r="F2" s="271" t="s">
         <v>104</v>
       </c>
-      <c r="G2" s="236"/>
-      <c r="H2" s="236"/>
-      <c r="I2" s="236"/>
-      <c r="J2" s="236"/>
-      <c r="K2" s="236"/>
-      <c r="L2" s="261" t="s">
+      <c r="G2" s="271"/>
+      <c r="H2" s="271"/>
+      <c r="I2" s="271"/>
+      <c r="J2" s="271"/>
+      <c r="K2" s="271"/>
+      <c r="L2" s="236" t="s">
         <v>154</v>
       </c>
-      <c r="M2" s="262"/>
-      <c r="N2" s="262"/>
-      <c r="O2" s="262"/>
-      <c r="P2" s="262"/>
-      <c r="Q2" s="262"/>
-      <c r="R2" s="262"/>
-      <c r="S2" s="262"/>
-      <c r="T2" s="263"/>
+      <c r="M2" s="237"/>
+      <c r="N2" s="237"/>
+      <c r="O2" s="237"/>
+      <c r="P2" s="237"/>
+      <c r="Q2" s="237"/>
+      <c r="R2" s="237"/>
+      <c r="S2" s="237"/>
+      <c r="T2" s="238"/>
       <c r="V2" s="76"/>
     </row>
     <row r="3" spans="1:23" ht="13.5" customHeight="1">
-      <c r="A3" s="243" t="s">
+      <c r="A3" s="251" t="s">
         <v>126</v>
       </c>
-      <c r="B3" s="244"/>
-      <c r="C3" s="271" t="s">
+      <c r="B3" s="252"/>
+      <c r="C3" s="286" t="s">
         <v>129</v>
       </c>
-      <c r="D3" s="272"/>
-      <c r="E3" s="273"/>
-      <c r="F3" s="265" t="s">
+      <c r="D3" s="287"/>
+      <c r="E3" s="288"/>
+      <c r="F3" s="241" t="s">
         <v>130</v>
       </c>
-      <c r="G3" s="265"/>
-      <c r="H3" s="265"/>
-      <c r="I3" s="265"/>
-      <c r="J3" s="265"/>
-      <c r="K3" s="265"/>
-      <c r="L3" s="272"/>
-      <c r="M3" s="272"/>
-      <c r="N3" s="272"/>
+      <c r="G3" s="241"/>
+      <c r="H3" s="241"/>
+      <c r="I3" s="241"/>
+      <c r="J3" s="241"/>
+      <c r="K3" s="241"/>
+      <c r="L3" s="287"/>
+      <c r="M3" s="287"/>
+      <c r="N3" s="287"/>
       <c r="O3" s="77"/>
       <c r="P3" s="77"/>
       <c r="Q3" s="77"/>
@@ -9360,117 +9365,117 @@
       <c r="T3" s="78"/>
     </row>
     <row r="4" spans="1:23" ht="13.5" customHeight="1">
-      <c r="A4" s="243" t="s">
+      <c r="A4" s="251" t="s">
         <v>127</v>
       </c>
-      <c r="B4" s="244"/>
-      <c r="C4" s="274">
+      <c r="B4" s="252"/>
+      <c r="C4" s="279">
         <v>9</v>
       </c>
-      <c r="D4" s="275"/>
+      <c r="D4" s="280"/>
       <c r="E4" s="79"/>
-      <c r="F4" s="265" t="s">
+      <c r="F4" s="241" t="s">
         <v>131</v>
       </c>
-      <c r="G4" s="265"/>
-      <c r="H4" s="265"/>
-      <c r="I4" s="265"/>
-      <c r="J4" s="265"/>
-      <c r="K4" s="265"/>
-      <c r="L4" s="266">
+      <c r="G4" s="241"/>
+      <c r="H4" s="241"/>
+      <c r="I4" s="241"/>
+      <c r="J4" s="241"/>
+      <c r="K4" s="241"/>
+      <c r="L4" s="242">
         <f xml:space="preserve"> IF(TestCaseList!E6&lt;&gt;"N/A",SUM(C4*TestCaseList!E6/1000,- O7),"N/A")</f>
         <v>-14.1</v>
       </c>
-      <c r="M4" s="246"/>
-      <c r="N4" s="246"/>
-      <c r="O4" s="246"/>
-      <c r="P4" s="246"/>
-      <c r="Q4" s="246"/>
-      <c r="R4" s="246"/>
-      <c r="S4" s="246"/>
-      <c r="T4" s="267"/>
+      <c r="M4" s="243"/>
+      <c r="N4" s="243"/>
+      <c r="O4" s="243"/>
+      <c r="P4" s="243"/>
+      <c r="Q4" s="243"/>
+      <c r="R4" s="243"/>
+      <c r="S4" s="243"/>
+      <c r="T4" s="244"/>
       <c r="V4" s="76"/>
     </row>
     <row r="5" spans="1:23" ht="13.5" customHeight="1">
-      <c r="A5" s="243" t="s">
+      <c r="A5" s="251" t="s">
         <v>128</v>
       </c>
-      <c r="B5" s="244"/>
-      <c r="C5" s="276" t="s">
+      <c r="B5" s="252"/>
+      <c r="C5" s="281" t="s">
         <v>34</v>
       </c>
-      <c r="D5" s="276"/>
-      <c r="E5" s="276"/>
-      <c r="F5" s="277"/>
-      <c r="G5" s="277"/>
-      <c r="H5" s="277"/>
-      <c r="I5" s="277"/>
-      <c r="J5" s="277"/>
-      <c r="K5" s="277"/>
-      <c r="L5" s="276"/>
-      <c r="M5" s="276"/>
-      <c r="N5" s="276"/>
-      <c r="O5" s="276"/>
-      <c r="P5" s="276"/>
-      <c r="Q5" s="276"/>
-      <c r="R5" s="276"/>
-      <c r="S5" s="276"/>
-      <c r="T5" s="276"/>
+      <c r="D5" s="281"/>
+      <c r="E5" s="281"/>
+      <c r="F5" s="282"/>
+      <c r="G5" s="282"/>
+      <c r="H5" s="282"/>
+      <c r="I5" s="282"/>
+      <c r="J5" s="282"/>
+      <c r="K5" s="282"/>
+      <c r="L5" s="281"/>
+      <c r="M5" s="281"/>
+      <c r="N5" s="281"/>
+      <c r="O5" s="281"/>
+      <c r="P5" s="281"/>
+      <c r="Q5" s="281"/>
+      <c r="R5" s="281"/>
+      <c r="S5" s="281"/>
+      <c r="T5" s="281"/>
     </row>
     <row r="6" spans="1:23" ht="13.5" customHeight="1">
-      <c r="A6" s="254" t="s">
+      <c r="A6" s="250" t="s">
         <v>132</v>
       </c>
-      <c r="B6" s="254"/>
-      <c r="C6" s="264" t="s">
+      <c r="B6" s="250"/>
+      <c r="C6" s="240" t="s">
         <v>133</v>
       </c>
-      <c r="D6" s="264"/>
-      <c r="E6" s="264"/>
-      <c r="F6" s="264" t="s">
+      <c r="D6" s="240"/>
+      <c r="E6" s="240"/>
+      <c r="F6" s="240" t="s">
         <v>114</v>
       </c>
-      <c r="G6" s="264"/>
-      <c r="H6" s="264"/>
-      <c r="I6" s="264"/>
-      <c r="J6" s="264"/>
-      <c r="K6" s="264"/>
-      <c r="L6" s="257" t="s">
+      <c r="G6" s="240"/>
+      <c r="H6" s="240"/>
+      <c r="I6" s="240"/>
+      <c r="J6" s="240"/>
+      <c r="K6" s="240"/>
+      <c r="L6" s="255" t="s">
         <v>35</v>
       </c>
-      <c r="M6" s="257"/>
-      <c r="N6" s="257"/>
-      <c r="O6" s="260" t="s">
+      <c r="M6" s="255"/>
+      <c r="N6" s="255"/>
+      <c r="O6" s="259" t="s">
         <v>134</v>
       </c>
-      <c r="P6" s="260"/>
-      <c r="Q6" s="260"/>
-      <c r="R6" s="260"/>
-      <c r="S6" s="260"/>
-      <c r="T6" s="260"/>
+      <c r="P6" s="259"/>
+      <c r="Q6" s="259"/>
+      <c r="R6" s="259"/>
+      <c r="S6" s="259"/>
+      <c r="T6" s="259"/>
       <c r="V6" s="76"/>
     </row>
     <row r="7" spans="1:23" ht="13.5" customHeight="1" thickBot="1">
-      <c r="A7" s="242">
+      <c r="A7" s="276">
         <f>COUNTIF(F40:HQ40,"P")</f>
         <v>13</v>
       </c>
-      <c r="B7" s="241"/>
-      <c r="C7" s="238">
+      <c r="B7" s="275"/>
+      <c r="C7" s="273">
         <f>COUNTIF(F40:HQ40,"F")</f>
         <v>2</v>
       </c>
-      <c r="D7" s="239"/>
-      <c r="E7" s="241"/>
-      <c r="F7" s="238">
+      <c r="D7" s="257"/>
+      <c r="E7" s="275"/>
+      <c r="F7" s="273">
         <f>SUM(O7,- A7,- C7)</f>
         <v>0</v>
       </c>
-      <c r="G7" s="239"/>
-      <c r="H7" s="239"/>
-      <c r="I7" s="239"/>
-      <c r="J7" s="239"/>
-      <c r="K7" s="240"/>
+      <c r="G7" s="257"/>
+      <c r="H7" s="257"/>
+      <c r="I7" s="257"/>
+      <c r="J7" s="257"/>
+      <c r="K7" s="274"/>
       <c r="L7" s="80">
         <f>COUNTIF(E39:HQ39,"N")</f>
         <v>12</v>
@@ -9483,15 +9488,15 @@
         <f>COUNTIF(E39:HQ39,"B")</f>
         <v>1</v>
       </c>
-      <c r="O7" s="258">
+      <c r="O7" s="256">
         <f>COUNTA(E9:HT9)</f>
         <v>15</v>
       </c>
-      <c r="P7" s="239"/>
-      <c r="Q7" s="239"/>
-      <c r="R7" s="239"/>
-      <c r="S7" s="239"/>
-      <c r="T7" s="259"/>
+      <c r="P7" s="257"/>
+      <c r="Q7" s="257"/>
+      <c r="R7" s="257"/>
+      <c r="S7" s="257"/>
+      <c r="T7" s="258"/>
       <c r="U7" s="81"/>
     </row>
     <row r="8" spans="1:23" ht="11.25" thickBot="1"/>
@@ -9763,8 +9768,8 @@
       <c r="A19" s="117"/>
       <c r="B19" s="86"/>
       <c r="C19" s="87"/>
-      <c r="D19" s="253"/>
-      <c r="E19" s="253"/>
+      <c r="D19" s="278"/>
+      <c r="E19" s="278"/>
       <c r="F19" s="126"/>
       <c r="G19" s="126"/>
       <c r="H19" s="126"/>
@@ -10211,11 +10216,11 @@
       <c r="A39" s="118" t="s">
         <v>138</v>
       </c>
-      <c r="B39" s="249" t="s">
+      <c r="B39" s="247" t="s">
         <v>20</v>
       </c>
-      <c r="C39" s="249"/>
-      <c r="D39" s="249"/>
+      <c r="C39" s="247"/>
+      <c r="D39" s="247"/>
       <c r="E39" s="163"/>
       <c r="F39" s="134" t="s">
         <v>21</v>
@@ -10265,11 +10270,11 @@
     </row>
     <row r="40" spans="1:20" ht="13.5" customHeight="1">
       <c r="A40" s="119"/>
-      <c r="B40" s="237" t="s">
+      <c r="B40" s="272" t="s">
         <v>24</v>
       </c>
-      <c r="C40" s="237"/>
-      <c r="D40" s="237"/>
+      <c r="C40" s="272"/>
+      <c r="D40" s="272"/>
       <c r="E40" s="110"/>
       <c r="F40" s="136" t="s">
         <v>25</v>
@@ -10319,11 +10324,11 @@
     </row>
     <row r="41" spans="1:20" ht="13.5" customHeight="1">
       <c r="A41" s="119"/>
-      <c r="B41" s="247" t="s">
+      <c r="B41" s="245" t="s">
         <v>27</v>
       </c>
-      <c r="C41" s="247"/>
-      <c r="D41" s="247"/>
+      <c r="C41" s="245"/>
+      <c r="D41" s="245"/>
       <c r="E41" s="104"/>
       <c r="F41" s="111">
         <v>39139</v>
@@ -10373,11 +10378,11 @@
     </row>
     <row r="42" spans="1:20" ht="75.75" thickBot="1">
       <c r="A42" s="120"/>
-      <c r="B42" s="248" t="s">
+      <c r="B42" s="246" t="s">
         <v>28</v>
       </c>
-      <c r="C42" s="248"/>
-      <c r="D42" s="248"/>
+      <c r="C42" s="246"/>
+      <c r="D42" s="246"/>
       <c r="E42" s="113"/>
       <c r="F42" s="114"/>
       <c r="G42" s="114"/>
@@ -10402,11 +10407,14 @@
     </row>
   </sheetData>
   <mergeCells count="28">
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="B39:D39"/>
-    <mergeCell ref="B40:D40"/>
-    <mergeCell ref="B41:D41"/>
-    <mergeCell ref="B42:D42"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="C2:E2"/>
+    <mergeCell ref="F2:K2"/>
+    <mergeCell ref="L2:T2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C3:E3"/>
+    <mergeCell ref="F3:K3"/>
+    <mergeCell ref="L3:N3"/>
     <mergeCell ref="A7:B7"/>
     <mergeCell ref="C7:E7"/>
     <mergeCell ref="F7:K7"/>
@@ -10422,14 +10430,11 @@
     <mergeCell ref="F6:K6"/>
     <mergeCell ref="L6:N6"/>
     <mergeCell ref="O6:T6"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="C2:E2"/>
-    <mergeCell ref="F2:K2"/>
-    <mergeCell ref="L2:T2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="C3:E3"/>
-    <mergeCell ref="F3:K3"/>
-    <mergeCell ref="L3:N3"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="B39:D39"/>
+    <mergeCell ref="B40:D40"/>
+    <mergeCell ref="B41:D41"/>
+    <mergeCell ref="B42:D42"/>
   </mergeCells>
   <phoneticPr fontId="40"/>
   <dataValidations count="3">
@@ -10481,59 +10486,59 @@
       <c r="B1" s="73"/>
     </row>
     <row r="2" spans="1:23" ht="13.5" customHeight="1">
-      <c r="A2" s="231" t="s">
+      <c r="A2" s="266" t="s">
         <v>125</v>
       </c>
-      <c r="B2" s="232"/>
-      <c r="C2" s="268" t="str">
+      <c r="B2" s="267"/>
+      <c r="C2" s="283" t="str">
         <f>TestCaseList!E11</f>
-        <v>SP001</v>
-      </c>
-      <c r="D2" s="269"/>
-      <c r="E2" s="270"/>
-      <c r="F2" s="236" t="s">
+        <v>SP07</v>
+      </c>
+      <c r="D2" s="284"/>
+      <c r="E2" s="285"/>
+      <c r="F2" s="271" t="s">
         <v>104</v>
       </c>
-      <c r="G2" s="236"/>
-      <c r="H2" s="236"/>
-      <c r="I2" s="236"/>
-      <c r="J2" s="236"/>
-      <c r="K2" s="236"/>
-      <c r="L2" s="261">
+      <c r="G2" s="271"/>
+      <c r="H2" s="271"/>
+      <c r="I2" s="271"/>
+      <c r="J2" s="271"/>
+      <c r="K2" s="271"/>
+      <c r="L2" s="236">
         <f>TestCaseList!D15</f>
         <v>0</v>
       </c>
-      <c r="M2" s="262"/>
-      <c r="N2" s="262"/>
-      <c r="O2" s="262"/>
-      <c r="P2" s="262"/>
-      <c r="Q2" s="262"/>
-      <c r="R2" s="262"/>
-      <c r="S2" s="262"/>
-      <c r="T2" s="263"/>
+      <c r="M2" s="237"/>
+      <c r="N2" s="237"/>
+      <c r="O2" s="237"/>
+      <c r="P2" s="237"/>
+      <c r="Q2" s="237"/>
+      <c r="R2" s="237"/>
+      <c r="S2" s="237"/>
+      <c r="T2" s="238"/>
       <c r="V2" s="76"/>
     </row>
     <row r="3" spans="1:23" ht="13.5" customHeight="1">
-      <c r="A3" s="243" t="s">
+      <c r="A3" s="251" t="s">
         <v>126</v>
       </c>
-      <c r="B3" s="244"/>
-      <c r="C3" s="271" t="s">
+      <c r="B3" s="252"/>
+      <c r="C3" s="286" t="s">
         <v>129</v>
       </c>
-      <c r="D3" s="272"/>
-      <c r="E3" s="273"/>
-      <c r="F3" s="265" t="s">
+      <c r="D3" s="287"/>
+      <c r="E3" s="288"/>
+      <c r="F3" s="241" t="s">
         <v>130</v>
       </c>
-      <c r="G3" s="265"/>
-      <c r="H3" s="265"/>
-      <c r="I3" s="265"/>
-      <c r="J3" s="265"/>
-      <c r="K3" s="265"/>
-      <c r="L3" s="272"/>
-      <c r="M3" s="272"/>
-      <c r="N3" s="272"/>
+      <c r="G3" s="241"/>
+      <c r="H3" s="241"/>
+      <c r="I3" s="241"/>
+      <c r="J3" s="241"/>
+      <c r="K3" s="241"/>
+      <c r="L3" s="287"/>
+      <c r="M3" s="287"/>
+      <c r="N3" s="287"/>
       <c r="O3" s="77"/>
       <c r="P3" s="77"/>
       <c r="Q3" s="77"/>
@@ -10542,117 +10547,117 @@
       <c r="T3" s="78"/>
     </row>
     <row r="4" spans="1:23" ht="13.5" customHeight="1">
-      <c r="A4" s="243" t="s">
+      <c r="A4" s="251" t="s">
         <v>127</v>
       </c>
-      <c r="B4" s="244"/>
-      <c r="C4" s="274">
+      <c r="B4" s="252"/>
+      <c r="C4" s="279">
         <v>9</v>
       </c>
-      <c r="D4" s="275"/>
+      <c r="D4" s="280"/>
       <c r="E4" s="79"/>
-      <c r="F4" s="265" t="s">
+      <c r="F4" s="241" t="s">
         <v>131</v>
       </c>
-      <c r="G4" s="265"/>
-      <c r="H4" s="265"/>
-      <c r="I4" s="265"/>
-      <c r="J4" s="265"/>
-      <c r="K4" s="265"/>
-      <c r="L4" s="266">
+      <c r="G4" s="241"/>
+      <c r="H4" s="241"/>
+      <c r="I4" s="241"/>
+      <c r="J4" s="241"/>
+      <c r="K4" s="241"/>
+      <c r="L4" s="242">
         <f xml:space="preserve"> IF(TestCaseList!E6&lt;&gt;"N/A",SUM(C4*TestCaseList!E6/1000,- O7),"N/A")</f>
         <v>-14.1</v>
       </c>
-      <c r="M4" s="246"/>
-      <c r="N4" s="246"/>
-      <c r="O4" s="246"/>
-      <c r="P4" s="246"/>
-      <c r="Q4" s="246"/>
-      <c r="R4" s="246"/>
-      <c r="S4" s="246"/>
-      <c r="T4" s="267"/>
+      <c r="M4" s="243"/>
+      <c r="N4" s="243"/>
+      <c r="O4" s="243"/>
+      <c r="P4" s="243"/>
+      <c r="Q4" s="243"/>
+      <c r="R4" s="243"/>
+      <c r="S4" s="243"/>
+      <c r="T4" s="244"/>
       <c r="V4" s="76"/>
     </row>
     <row r="5" spans="1:23" ht="13.5" customHeight="1">
-      <c r="A5" s="243" t="s">
+      <c r="A5" s="251" t="s">
         <v>128</v>
       </c>
-      <c r="B5" s="244"/>
-      <c r="C5" s="276" t="s">
+      <c r="B5" s="252"/>
+      <c r="C5" s="281" t="s">
         <v>34</v>
       </c>
-      <c r="D5" s="276"/>
-      <c r="E5" s="276"/>
-      <c r="F5" s="277"/>
-      <c r="G5" s="277"/>
-      <c r="H5" s="277"/>
-      <c r="I5" s="277"/>
-      <c r="J5" s="277"/>
-      <c r="K5" s="277"/>
-      <c r="L5" s="276"/>
-      <c r="M5" s="276"/>
-      <c r="N5" s="276"/>
-      <c r="O5" s="276"/>
-      <c r="P5" s="276"/>
-      <c r="Q5" s="276"/>
-      <c r="R5" s="276"/>
-      <c r="S5" s="276"/>
-      <c r="T5" s="276"/>
+      <c r="D5" s="281"/>
+      <c r="E5" s="281"/>
+      <c r="F5" s="282"/>
+      <c r="G5" s="282"/>
+      <c r="H5" s="282"/>
+      <c r="I5" s="282"/>
+      <c r="J5" s="282"/>
+      <c r="K5" s="282"/>
+      <c r="L5" s="281"/>
+      <c r="M5" s="281"/>
+      <c r="N5" s="281"/>
+      <c r="O5" s="281"/>
+      <c r="P5" s="281"/>
+      <c r="Q5" s="281"/>
+      <c r="R5" s="281"/>
+      <c r="S5" s="281"/>
+      <c r="T5" s="281"/>
     </row>
     <row r="6" spans="1:23" ht="13.5" customHeight="1">
-      <c r="A6" s="254" t="s">
+      <c r="A6" s="250" t="s">
         <v>132</v>
       </c>
-      <c r="B6" s="254"/>
-      <c r="C6" s="264" t="s">
+      <c r="B6" s="250"/>
+      <c r="C6" s="240" t="s">
         <v>133</v>
       </c>
-      <c r="D6" s="264"/>
-      <c r="E6" s="264"/>
-      <c r="F6" s="264" t="s">
+      <c r="D6" s="240"/>
+      <c r="E6" s="240"/>
+      <c r="F6" s="240" t="s">
         <v>114</v>
       </c>
-      <c r="G6" s="264"/>
-      <c r="H6" s="264"/>
-      <c r="I6" s="264"/>
-      <c r="J6" s="264"/>
-      <c r="K6" s="264"/>
-      <c r="L6" s="257" t="s">
+      <c r="G6" s="240"/>
+      <c r="H6" s="240"/>
+      <c r="I6" s="240"/>
+      <c r="J6" s="240"/>
+      <c r="K6" s="240"/>
+      <c r="L6" s="255" t="s">
         <v>35</v>
       </c>
-      <c r="M6" s="257"/>
-      <c r="N6" s="257"/>
-      <c r="O6" s="260" t="s">
+      <c r="M6" s="255"/>
+      <c r="N6" s="255"/>
+      <c r="O6" s="259" t="s">
         <v>134</v>
       </c>
-      <c r="P6" s="260"/>
-      <c r="Q6" s="260"/>
-      <c r="R6" s="260"/>
-      <c r="S6" s="260"/>
-      <c r="T6" s="260"/>
+      <c r="P6" s="259"/>
+      <c r="Q6" s="259"/>
+      <c r="R6" s="259"/>
+      <c r="S6" s="259"/>
+      <c r="T6" s="259"/>
       <c r="V6" s="76"/>
     </row>
     <row r="7" spans="1:23" ht="13.5" customHeight="1" thickBot="1">
-      <c r="A7" s="242">
+      <c r="A7" s="276">
         <f>COUNTIF(F40:HQ40,"P")</f>
         <v>12</v>
       </c>
-      <c r="B7" s="241"/>
-      <c r="C7" s="238">
+      <c r="B7" s="275"/>
+      <c r="C7" s="273">
         <f>COUNTIF(F40:HQ40,"F")</f>
         <v>2</v>
       </c>
-      <c r="D7" s="239"/>
-      <c r="E7" s="241"/>
-      <c r="F7" s="238">
+      <c r="D7" s="257"/>
+      <c r="E7" s="275"/>
+      <c r="F7" s="273">
         <f>SUM(O7,- A7,- C7)</f>
         <v>1</v>
       </c>
-      <c r="G7" s="239"/>
-      <c r="H7" s="239"/>
-      <c r="I7" s="239"/>
-      <c r="J7" s="239"/>
-      <c r="K7" s="240"/>
+      <c r="G7" s="257"/>
+      <c r="H7" s="257"/>
+      <c r="I7" s="257"/>
+      <c r="J7" s="257"/>
+      <c r="K7" s="274"/>
       <c r="L7" s="80">
         <f>COUNTIF(E39:HQ39,"N")</f>
         <v>12</v>
@@ -10665,15 +10670,15 @@
         <f>COUNTIF(E39:HQ39,"B")</f>
         <v>1</v>
       </c>
-      <c r="O7" s="258">
+      <c r="O7" s="256">
         <f>COUNTA(E9:HT9)</f>
         <v>15</v>
       </c>
-      <c r="P7" s="239"/>
-      <c r="Q7" s="239"/>
-      <c r="R7" s="239"/>
-      <c r="S7" s="239"/>
-      <c r="T7" s="259"/>
+      <c r="P7" s="257"/>
+      <c r="Q7" s="257"/>
+      <c r="R7" s="257"/>
+      <c r="S7" s="257"/>
+      <c r="T7" s="258"/>
       <c r="U7" s="81"/>
     </row>
     <row r="8" spans="1:23" ht="11.25" thickBot="1"/>
@@ -10945,8 +10950,8 @@
       <c r="A19" s="117"/>
       <c r="B19" s="86"/>
       <c r="C19" s="87"/>
-      <c r="D19" s="253"/>
-      <c r="E19" s="253"/>
+      <c r="D19" s="278"/>
+      <c r="E19" s="278"/>
       <c r="F19" s="126"/>
       <c r="G19" s="126"/>
       <c r="H19" s="126"/>
@@ -11393,11 +11398,11 @@
       <c r="A39" s="118" t="s">
         <v>138</v>
       </c>
-      <c r="B39" s="249" t="s">
+      <c r="B39" s="247" t="s">
         <v>20</v>
       </c>
-      <c r="C39" s="249"/>
-      <c r="D39" s="249"/>
+      <c r="C39" s="247"/>
+      <c r="D39" s="247"/>
       <c r="E39" s="161"/>
       <c r="F39" s="134" t="s">
         <v>21</v>
@@ -11447,11 +11452,11 @@
     </row>
     <row r="40" spans="1:20" ht="13.5" customHeight="1">
       <c r="A40" s="119"/>
-      <c r="B40" s="237" t="s">
+      <c r="B40" s="272" t="s">
         <v>24</v>
       </c>
-      <c r="C40" s="237"/>
-      <c r="D40" s="237"/>
+      <c r="C40" s="272"/>
+      <c r="D40" s="272"/>
       <c r="E40" s="110"/>
       <c r="F40" s="136" t="s">
         <v>25</v>
@@ -11499,11 +11504,11 @@
     </row>
     <row r="41" spans="1:20" ht="13.5" customHeight="1">
       <c r="A41" s="119"/>
-      <c r="B41" s="247" t="s">
+      <c r="B41" s="245" t="s">
         <v>27</v>
       </c>
-      <c r="C41" s="247"/>
-      <c r="D41" s="247"/>
+      <c r="C41" s="245"/>
+      <c r="D41" s="245"/>
       <c r="E41" s="104"/>
       <c r="F41" s="111">
         <v>39139</v>
@@ -11553,11 +11558,11 @@
     </row>
     <row r="42" spans="1:20" ht="75.75" thickBot="1">
       <c r="A42" s="120"/>
-      <c r="B42" s="248" t="s">
+      <c r="B42" s="246" t="s">
         <v>28</v>
       </c>
-      <c r="C42" s="248"/>
-      <c r="D42" s="248"/>
+      <c r="C42" s="246"/>
+      <c r="D42" s="246"/>
       <c r="E42" s="113"/>
       <c r="F42" s="114"/>
       <c r="G42" s="114"/>
@@ -11582,14 +11587,11 @@
     </row>
   </sheetData>
   <mergeCells count="28">
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="C2:E2"/>
-    <mergeCell ref="F2:K2"/>
-    <mergeCell ref="L2:T2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="C3:E3"/>
-    <mergeCell ref="F3:K3"/>
-    <mergeCell ref="L3:N3"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="B39:D39"/>
+    <mergeCell ref="B40:D40"/>
+    <mergeCell ref="B41:D41"/>
+    <mergeCell ref="B42:D42"/>
     <mergeCell ref="A7:B7"/>
     <mergeCell ref="C7:E7"/>
     <mergeCell ref="F7:K7"/>
@@ -11605,11 +11607,14 @@
     <mergeCell ref="F6:K6"/>
     <mergeCell ref="L6:N6"/>
     <mergeCell ref="O6:T6"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="B39:D39"/>
-    <mergeCell ref="B40:D40"/>
-    <mergeCell ref="B41:D41"/>
-    <mergeCell ref="B42:D42"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="C2:E2"/>
+    <mergeCell ref="F2:K2"/>
+    <mergeCell ref="L2:T2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C3:E3"/>
+    <mergeCell ref="F3:K3"/>
+    <mergeCell ref="L3:N3"/>
   </mergeCells>
   <phoneticPr fontId="40"/>
   <dataValidations count="3">
